--- a/SPFx_Common_Requirements.xlsx
+++ b/SPFx_Common_Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckeh\Documents\Spfx Projects\SPFx guidelines with samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8470DB79-14E8-42C9-B486-670E4F0700D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15DE3A3-6CDA-4CC3-97F5-FAD9C40DD05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,28 @@
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$E$7:$E$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$D$7:$D$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>SPFx Common  Requirements and Solutions</t>
   </si>
@@ -63,82 +72,308 @@
     <t>The web part should follow the selected site theme changes  AND section variants changes as well</t>
   </si>
   <si>
-    <t>Follow theme variant changes
+    <t>https://github.com/Microsoft/frontend-bootcamp/tree/master/step2-03/demo</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>ST1</t>
+  </si>
+  <si>
+    <t>ST2</t>
+  </si>
+  <si>
+    <t>ST3</t>
+  </si>
+  <si>
+    <t>ST4</t>
+  </si>
+  <si>
+    <t>1) Call loadTheme to apply a selected theme to the whole page the web part is hosted
+2) Use the technic described in #ST1 to color the various components of the web part</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/sharepoint/dev/spfx/use-theme-colors-in-your-customizations</t>
+  </si>
+  <si>
+    <t>Follow the instructions of the provided resources</t>
+  </si>
+  <si>
+    <t>ST5</t>
+  </si>
+  <si>
+    <t>Apply a custom theme to the whole site and not be able to change it via Change the look</t>
+  </si>
+  <si>
+    <t>ST6</t>
+  </si>
+  <si>
+    <t>Styling</t>
+  </si>
+  <si>
+    <t>Style Fabric UI / Fluent UI Components</t>
+  </si>
+  <si>
+    <t>The web part's elements should follow the selected site theme changes (Gear =&gt; Change the look =&gt; Theme)</t>
+  </si>
+  <si>
+    <t>Fluent UI Theme designer
 -------------------------------------
+https://fluentuipr.z22.web.core.windows.net/heads/master/theming-designer/index.html
+Github repo with spfx examples. See theme-wp web part:
+---------------------------------------------------------------------------------
+https://github.com/stud1112/SPFxTutorial</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/en-us/office/change-the-look-of-your-sharepoint-site-06bbadc3-6b04-4a60-9d14-894f6a170818?ui=en-us&amp;rs=en-us&amp;ad=us#BKMK_ThemeColors
+https://docs.microsoft.com/en-us/sharepoint/dev/declarative-customization/site-theming/sharepoint-site-theming-overview</t>
+  </si>
+  <si>
+    <t>Extensions</t>
+  </si>
+  <si>
+    <t>Spfx solutions deployment</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loadTheme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is not recommended any more. Instead </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ThemeProvider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (npm packages: @fluentui/react-theme-provider, @fluentui/react) should be used to theme the whole web part</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow theme variant changes
+--------------------------------------------
 https://tahoeninjas.blog/2020/07/28/adding-support-for-theme-variants-in-spfx-web-parts/
 Use React context to make the current theme available to every component in tree
------------------------------------------------------
-https://github.com/pnp/sp-dev-fx-webparts/tree/main/samples/react-functional-servicescope-hooks</t>
-  </si>
-  <si>
-    <t>1) Use of ThemeProvider to detect the theme changes (from site via Change the look and from section variants)
-2) Use React context to propagate theme changes to components of any deep level</t>
-  </si>
-  <si>
-    <t>Fluent UI Theme designer
--------------------------------
-https://fluentuipr.z22.web.core.windows.net/heads/master/theming-designer/index.html</t>
+----------------------------------------------------------------------------------
+https://github.com/pnp/sp-dev-fx-webparts/tree/main/samples/react-functional-servicescope-hooks
+Github repo with spfx examples. See theme-wp web part:
+---------------------------------------------------------------------------------
+https://github.com/stud1112/SPFxTutorial
+</t>
+  </si>
+  <si>
+    <t>1) Use of ThemeProvider (of npm package @microsoft/sp-component-base) to detect the theme changes (from site via Change the look and from section variants)
+2) Use React context to propagate theme changes to components of any deep level
+3) Use ThemeProvider (of npm package @fluentui/react-theme-provider or @fluentui/react) to propagate a selected theme variant to a specific component tree</t>
+  </si>
+  <si>
+    <t>Web Part Property pane configuration</t>
+  </si>
+  <si>
+    <t>Microsoft Teams</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Property Pane</t>
+  </si>
+  <si>
+    <t>MS Teams</t>
   </si>
   <si>
     <t>1) Use Fluent UI Theme designer to create the desired theme
 2) Once the theme is created, press button labeled "Export them" in the upper right corner
-3) Press Export to CodePen to see a typical application of ThemeProvide for a react subtree of the web part</t>
-  </si>
-  <si>
-    <t>https://github.com/Microsoft/frontend-bootcamp/tree/master/step2-03/demo</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>ST1</t>
-  </si>
-  <si>
-    <t>ST2</t>
-  </si>
-  <si>
-    <t>ST3</t>
-  </si>
-  <si>
-    <t>ST4</t>
-  </si>
-  <si>
-    <t>1) Call loadTheme to apply a selected theme to the whole page the web part is hosted
-2) Use the technic described in #ST1 to color the various components of the web part</t>
-  </si>
-  <si>
-    <t>The web part should follow the selected site theme changes (Gear =&gt; Change the look =&gt; Theme)</t>
-  </si>
-  <si>
-    <t>https://docs.microsoft.com/en-us/sharepoint/dev/spfx/use-theme-colors-in-your-customizations</t>
-  </si>
-  <si>
-    <t>Follow the instructions of the provided resources</t>
-  </si>
-  <si>
-    <t>ST5</t>
-  </si>
-  <si>
-    <t>Apply a custom theme to the whole site and not be able to change it via Change the look</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>ST6</t>
-  </si>
-  <si>
-    <t>Styling</t>
-  </si>
-  <si>
-    <t>Style Fabric UI / Fluent UI Components</t>
+3) Press Export to CodePen to see a typical application of ThemeProvider for a react subtree of the web part</t>
+  </si>
+  <si>
+    <t>At the following link: https://github.com/Microsoft/frontend-bootcamp/tree/master/step2-03/demo
+see 3. Customizing one Fabric Control Instance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Through fluent ui controls </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>styles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> property than can take either an object:
+const</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> buttonStyles </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>root: { backgroundColor: 'maroon' },
+    rootHovered: { background: 'green' }</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> };</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+or a function which returns a style object based on the component's prop values:
+const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>textFieldStyles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (props: ITextFieldStyleProps): Partial&lt;ITextFieldStyles&gt; =&gt; ({
+    ...(props.focused &amp;&amp; {
+      field: {
+        backgroundColor: '#c7e0f4'
+      }
+    })
+  });
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,13 +395,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,10 +427,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -194,16 +444,23 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,169 +739,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G12"/>
+  <dimension ref="A3:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.21875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="35.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="47.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="76.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
       <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>27</v>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{8FAE531C-5164-491C-8C76-DC2322779F6C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
--- a/SPFx_Common_Requirements.xlsx
+++ b/SPFx_Common_Requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckeh\Documents\Spfx Projects\SPFx guidelines with samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15DE3A3-6CDA-4CC3-97F5-FAD9C40DD05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2CDA06-786F-43D6-BB27-0BFFD4712757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>SPFx Common  Requirements and Solutions</t>
   </si>
@@ -124,10 +124,6 @@
 Github repo with spfx examples. See theme-wp web part:
 ---------------------------------------------------------------------------------
 https://github.com/stud1112/SPFxTutorial</t>
-  </si>
-  <si>
-    <t>https://support.microsoft.com/en-us/office/change-the-look-of-your-sharepoint-site-06bbadc3-6b04-4a60-9d14-894f6a170818?ui=en-us&amp;rs=en-us&amp;ad=us#BKMK_ThemeColors
-https://docs.microsoft.com/en-us/sharepoint/dev/declarative-customization/site-theming/sharepoint-site-theming-overview</t>
   </si>
   <si>
     <t>Extensions</t>
@@ -367,6 +363,101 @@
   });
 </t>
     </r>
+  </si>
+  <si>
+    <t>Spfx Forms</t>
+  </si>
+  <si>
+    <t>Forms</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/en-us/office/change-the-look-of-your-sharepoint-site-06bbadc3-6b04-4a60-9d14-894f6a170818?ui=en-us&amp;rs=en-us&amp;ad=us#BKMK_ThemeColors
+https://docs.microsoft.com/en-us/sharepoint/dev/declarative-customization/site-theming/sharepoint-site-theming-overview
+https://docs.microsoft.com/en-us/sharepoint/dev/declarative-customization/site-design-overview</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Create a theme through fluent ui designer (https://fluentuipr.z22.web.core.windows.net/heads/master/theming-designer/index.html) and after you create it, press the upper right corner </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Export Theme </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button and copy the content from tab Powershell
+2) In Powershell connected to the tenant, create a new theme in Sharepoint Online following the arcticle: https://docs.microsoft.com/en-us/powershell/module/sharepoint-online/Add-SPOTheme?view=sharepoint-ps  , and using the theme created in step 1)
+3) In Powershell connected to the tenant, create a new site script : 
+$site_script =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  "$schema": "https://developer.microsoft.com/json-schemas/sp/site-design-script-actions.schema.json",
+  "actions": [
+    {
+      "verb": "applyTheme",
+      "themeName": "Contoso Explorers"
+    }
+  ],
+  "version": 1
+}'
+ after you have substituted Contoso Explorers with the name of the theme specified in 2)
+C:\&gt; Add-SPOSiteScript
+ -Title "Create customer tracking list"
+ -Content $site_script
+ -Description "Creates list for tracking customer contact information"
+4) In Powershell connected to the tenant, create a new site template: 
+C:\&gt; Add-SPOSiteDesign
+ -Title "Contoso customer tracking"
+ -WebTemplate "64"
+ -SiteScripts "&lt;ID&gt;"
+ -Description "Tracks key customer data in a list"
+substituting the "&lt;ID&gt;" with the ID of the site script created in step 3)
+5) Follow the instructions here: https://docs.microsoft.com/en-us/powershell/module/sharepoint-online/Invoke-SPOSiteDesign?view=sharepoint-ps to invoke the site template to the specified site collections/sites
+6) We can use Set-SPOHideDefaultThemes (https://docs.microsoft.com/en-us/sharepoint/dev/declarative-customization/site-theming/sharepoint-site-theming-powershell) in order to hide the default themes from the users</t>
+    </r>
+  </si>
+  <si>
+    <t>ST7</t>
+  </si>
+  <si>
+    <t>Apply a custom font or a custom css in general, to a site collection, or site or the whole tenant</t>
+  </si>
+  <si>
+    <t>1) A Sharepoint Extension must be created, and specifically a, Application Customizer extension: https://docs.microsoft.com/en-us/sharepoint/dev/spfx/extensions/get-started/build-a-hello-world-extension
+2) Study the following extension: https://github.com/pnp/sp-dev-fx-extensions/tree/main/samples/react-application-injectcss on how to apply a custom css to modern ui (sharepoint online)
+3)  Follow the steps: https://docs.microsoft.com/en-us/sharepoint/dev/spfx/extensions/basics/tenant-wide-deployment-extensions , to apply an extension tenant wide</t>
   </si>
 </sst>
 </file>
@@ -739,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G16"/>
+  <dimension ref="A3:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -819,10 +910,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -845,7 +936,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -862,13 +953,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -881,11 +972,14 @@
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E11" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -893,37 +987,46 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -931,10 +1034,26 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
-        <v>38</v>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/SPFx_Common_Requirements.xlsx
+++ b/SPFx_Common_Requirements.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckeh\Documents\Spfx Projects\SPFx guidelines with samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2CDA06-786F-43D6-BB27-0BFFD4712757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877980F2-0BE2-4406-A4F0-DDC9BB9F5138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
+    <sheet name="Bundle sizes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$D$7:$D$10</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>SPFx Common  Requirements and Solutions</t>
   </si>
@@ -458,6 +459,71 @@
     <t>1) A Sharepoint Extension must be created, and specifically a, Application Customizer extension: https://docs.microsoft.com/en-us/sharepoint/dev/spfx/extensions/get-started/build-a-hello-world-extension
 2) Study the following extension: https://github.com/pnp/sp-dev-fx-extensions/tree/main/samples/react-application-injectcss on how to apply a custom css to modern ui (sharepoint online)
 3)  Follow the steps: https://docs.microsoft.com/en-us/sharepoint/dev/spfx/extensions/basics/tenant-wide-deployment-extensions , to apply an extension tenant wide</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/sharepoint/dev/spfx/integrate-with-teams-introduction</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/sharepoint/dev/spfx/web-parts/basics/notes-on-solution-packaging
+https://docs.microsoft.com/en-us/sharepoint/dev/spfx/toolchain/optimize-builds-for-production
+https://docs.microsoft.com/en-us/sharepoint/dev/spfx/web-parts/basics/add-an-external-library</t>
+  </si>
+  <si>
+    <t>Package Name</t>
+  </si>
+  <si>
+    <t>Is External</t>
+  </si>
+  <si>
+    <t>Bundle Name</t>
+  </si>
+  <si>
+    <t>Debug/Release</t>
+  </si>
+  <si>
+    <t>themes-web-part.js</t>
+  </si>
+  <si>
+    <t>@fluentui/react</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>Bundle Size (KB)</t>
+  </si>
+  <si>
+    <t>Package Solution Size (KB)</t>
+  </si>
+  <si>
+    <t>Package Solution Name</t>
+  </si>
+  <si>
+    <t>themes-wp.sppkg</t>
+  </si>
+  <si>
+    <t>themes-web-part_1a160c7270cdfda26d58.js</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>themes-web-part_8a9dacb17d18f5051415.js</t>
+  </si>
+  <si>
+    <t>Deploy a web part: https://docs.microsoft.com/en-us/sharepoint/dev/spfx/web-parts/get-started/hosting-webpart-from-office-365-cdn
+Deploy an extension:
+https://docs.microsoft.com/en-us/sharepoint/dev/spfx/extensions/get-started/serving-your-extension-from-sharepoint
+https://docs.microsoft.com/en-us/sharepoint/dev/spfx/extensions/get-started/hosting-extension-from-office365-cdn
+https://docs.microsoft.com/en-us/sharepoint/dev/spfx/extensions/get-started/hosting-extension-from-office365-cdn
+Deploy a field customizer extension: https://docs.microsoft.com/en-us/sharepoint/dev/spfx/extensions/get-started/building-simple-field-customizer#add-the-field-definition-to-the-solution-package-for-deployment
+Deploy list view command set extension: https://docs.microsoft.com/en-us/sharepoint/dev/spfx/extensions/get-started/building-simple-cmdset-with-dialog-api#add-a-listview-command-set-to-a-solution-package-for-deployment</t>
   </si>
 </sst>
 </file>
@@ -509,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -517,12 +583,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -549,6 +630,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -832,15 +917,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="76.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53" style="4" bestFit="1" customWidth="1"/>
@@ -1040,20 +1125,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="17" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1064,4 +1158,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CA82D5-57A4-4858-9257-BEEB389E3E57}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="11">
+        <v>4428</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="1">
+        <v>262</v>
+      </c>
+      <c r="G3" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="11">
+        <v>7995</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1">
+        <v>360</v>
+      </c>
+      <c r="G5" s="1">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>